--- a/biology/Botanique/Morella_esculenta/Morella_esculenta.xlsx
+++ b/biology/Botanique/Morella_esculenta/Morella_esculenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morella esculenta est une espèce de plantes de la famille des Myricacées vivant en Asie du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Inde, au Népal, au Bhoutan et en Birmanie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Inde, au Népal, au Bhoutan et en Birmanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a de nombreux usages, ses fruits sont comestibles, l'écorce est utilisée pour faire des teintures et la sève est utilisée pour faire du savon et des bougies. On prête également des vertus médicinales à l'écorce de cette plante qui est utilisée pour soigner la fièvre, la diarrhée, l'asthme et les caries[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a de nombreux usages, ses fruits sont comestibles, l'écorce est utilisée pour faire des teintures et la sève est utilisée pour faire du savon et des bougies. On prête également des vertus médicinales à l'écorce de cette plante qui est utilisée pour soigner la fièvre, la diarrhée, l'asthme et les caries.
 </t>
         </is>
       </c>
